--- a/biology/Virologie/Journée_mondiale_de_lutte_contre_le_sida/Journée_mondiale_de_lutte_contre_le_sida.xlsx
+++ b/biology/Virologie/Journée_mondiale_de_lutte_contre_le_sida/Journée_mondiale_de_lutte_contre_le_sida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_lutte_contre_le_sida</t>
+          <t>Journée_mondiale_de_lutte_contre_le_sida</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Journée mondiale du sida, ou Journée mondiale de lutte contre le sida, est une journée internationale consacrée à la sensibilisation de la pandémie du sida. Elle est organisée tous les 1er décembre.
-Cette journée fut établie le 1er décembre 1988 par l'Organisation mondiale de la santé (OMS), et le droit de tenir cette manifestation chaque année a été approuvé par l'Assemblée générale des Nations unies[1].
+Cette journée fut établie le 1er décembre 1988 par l'Organisation mondiale de la santé (OMS), et le droit de tenir cette manifestation chaque année a été approuvé par l'Assemblée générale des Nations unies.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_lutte_contre_le_sida</t>
+          <t>Journée_mondiale_de_lutte_contre_le_sida</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,15 +525,17 @@
           <t>Thèmes annuels</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">2023 : Confier le leadership aux communautés
-2022 : Poussons pour l'égalité[2]
-2021 : Mettre fin aux inégalités. Mettre fin au sida. Mettre fin aux pandémies.[3]
-2020 : Solidarité mondiale et responsabilité partagée[4]
-2019 : Les organisations communautaires font la différence[5]
-2018 : Vivre sa vie positivement[6]
-2017 : Ma santé, mes droits[7]
+2022 : Poussons pour l'égalité
+2021 : Mettre fin aux inégalités. Mettre fin au sida. Mettre fin aux pandémies.
+2020 : Solidarité mondiale et responsabilité partagée
+2019 : Les organisations communautaires font la différence
+2018 : Vivre sa vie positivement
+2017 : Ma santé, mes droits
 2016 : Levons la main pour #préventionVIH
 2015 : Sur la voie rapide pour mettre fin au sida
 2014 : Combler l’écart
@@ -549,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_lutte_contre_le_sida</t>
+          <t>Journée_mondiale_de_lutte_contre_le_sida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -569,10 +583,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amérique du nord
-Depuis 1995, le Président des États-Unis fait un discours officiel pour cet événement.
-Asie
-Le 1er décembre 2009, Miss Tibet 2009, Tenzin Choezom a lancé le départ de la course "Run for AIDS" à Dharamsala en Inde, et le ministre de la santé du gouvernement tibétain en exil et l'association Choice ont promu la vigilance et l’éducation de la communauté tibétaine en exil pour combattre le VIH/SIDA[8],[9].
+          <t>Amérique du nord</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1995, le Président des États-Unis fait un discours officiel pour cet événement.
 </t>
         </is>
       </c>
@@ -583,7 +600,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_mondiale_de_lutte_contre_le_sida</t>
+          <t>Journée_mondiale_de_lutte_contre_le_sida</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,12 +615,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Campagnes précédentes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Asie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 1er décembre 2009, Miss Tibet 2009, Tenzin Choezom a lancé le départ de la course "Run for AIDS" à Dharamsala en Inde, et le ministre de la santé du gouvernement tibétain en exil et l'association Choice ont promu la vigilance et l’éducation de la communauté tibétaine en exil pour combattre le VIH/SIDA,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Journée_mondiale_de_lutte_contre_le_sida</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Journ%C3%A9e_mondiale_de_lutte_contre_le_sida</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Autres campagnes de l'OMS</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Elle fait partie des dix campagnes officielles de l'Organisation mondiale de la santé (OMS) en faveur de la santé publique mondiale[10] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elle fait partie des dix campagnes officielles de l'Organisation mondiale de la santé (OMS) en faveur de la santé publique mondiale :
 Journée mondiale de lutte contre la tuberculose (le 24 mars) :
 Journée mondiale de la santé (le 7 avril) ;
 Journée mondiale du paludisme (le 25 avril) ;
